--- a/InputData/indst/PPRiFUfERoIF/Pot Perc Reduction in Fuel Use from Early Retirement.xlsx
+++ b/InputData/indst/PPRiFUfERoIF/Pot Perc Reduction in Fuel Use from Early Retirement.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\indst\PPRiFUfERoIF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdeng\Dropbox (Energy Innovation)\EU EPS\InputData\indst\PPRiFUfERoIF\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB605B6-1B8B-45A6-B66A-3BEE01C55C4F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="21075" windowHeight="11055"/>
+    <workbookView xWindow="6165" yWindow="-12585" windowWidth="15585" windowHeight="9540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -17,12 +18,23 @@
     <sheet name="Results" sheetId="3" r:id="rId3"/>
     <sheet name="PPRiFUfERoIF" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="164">
   <si>
     <t>Industrial Sector Macroeconomic Indicators</t>
   </si>
@@ -511,12 +523,15 @@
   </si>
   <si>
     <t>Perc Fuel Use Reduction (dimensionless)</t>
+  </si>
+  <si>
+    <t>The EU EPS currently uses US EPS values.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -546,7 +561,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -574,6 +589,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,7 +649,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -664,6 +685,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -758,6 +781,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -793,6 +833,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -968,10 +1025,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1018,67 +1077,76 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
+      <c r="A10" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="B10" s="22"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
+      <c r="A11" s="14"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>160</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1089,7 +1157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G122"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2758,7 +2826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2888,7 +2956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>

--- a/InputData/indst/PPRiFUfERoIF/Pot Perc Reduction in Fuel Use from Early Retirement.xlsx
+++ b/InputData/indst/PPRiFUfERoIF/Pot Perc Reduction in Fuel Use from Early Retirement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\indst\PPRiFUfERoIF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://energyinnovation.sharepoint.com/sites/EUEPSModeling/Shared Documents/InputData_EI+Agora/indst/PPRiFUfERoIF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4898E6-CA5E-4B15-861F-FDDE8D5411E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4898E6-CA5E-4B15-861F-FDDE8D5411E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4245" yWindow="1290" windowWidth="23580" windowHeight="15330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1820" yWindow="1820" windowWidth="14400" windowHeight="8170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -569,7 +569,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -674,7 +674,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -682,11 +682,8 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -715,9 +712,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -755,9 +752,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -790,26 +787,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -842,26 +822,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1037,20 +1000,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="81.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.7265625" customWidth="1"/>
+    <col min="2" max="2" width="81.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1058,92 +1021,92 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" s="2">
         <v>2014</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -1160,44 +1123,44 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="106" customWidth="1"/>
-    <col min="2" max="5" width="9.140625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="2" max="5" width="9.1796875" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5">
         <v>2029</v>
       </c>
       <c r="F5">
@@ -1207,1617 +1170,1616 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" s="9">
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7">
         <v>20496.3</v>
       </c>
       <c r="F7">
         <v>20991.3</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="6">
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" s="9">
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8">
         <v>20637.400000000001</v>
       </c>
       <c r="F8">
         <v>21138.5</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="6">
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" s="9">
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10">
         <v>157.19999999999999</v>
       </c>
       <c r="F10">
         <v>158.6</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="6">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" s="9">
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11">
         <v>157.19999999999999</v>
       </c>
       <c r="F11">
         <v>158.6</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="6">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E15" s="9">
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15">
         <v>355.7</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="8">
         <v>359</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="6">
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16" s="9">
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16">
         <v>358.2</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="8">
         <v>361.7</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="6">
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="C17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E18" s="9">
+      <c r="C18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18">
         <v>530.6</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="8">
         <v>529.4</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="6">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E19" s="9">
+      <c r="C19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19">
         <v>534.6</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="8">
         <v>532.5</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="6">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="C20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E21" s="9">
+      <c r="C21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21">
         <v>1476.6</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="8">
         <v>1492</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="6">
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E22" s="9">
+      <c r="C22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22">
         <v>1475.7</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="8">
         <v>1494.8</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="6">
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+      <c r="C24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E25" s="9">
+      <c r="C25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25">
         <v>808.6</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="9">
         <v>822</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="6">
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E26" s="9">
+      <c r="C26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26">
         <v>814.8</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="10">
         <v>827.6</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="6">
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F27" s="14"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+      <c r="C27" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E28" s="9">
+      <c r="C28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28">
         <v>95.7</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="10">
         <v>95.3</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="6">
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="11" t="s">
+    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E29" s="9">
+      <c r="C29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29">
         <v>97.6</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F29" s="12">
         <v>97.1</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="6">
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+      <c r="C30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E31" s="9">
+      <c r="C31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31">
         <v>37.299999999999997</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="8">
         <v>36.1</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="6">
         <v>-3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E32" s="9">
+      <c r="C32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32">
         <v>42.9</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="8">
         <v>41.6</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="6">
         <v>-2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="C33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E34" s="9">
+      <c r="C34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34">
         <v>101.8</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="8">
         <v>102.6</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G34" s="6">
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E35" s="9">
+      <c r="C35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35">
         <v>106.6</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="8">
         <v>107.1</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G35" s="6">
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>55</v>
       </c>
-      <c r="C36" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E37" s="9">
+      <c r="C37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37">
         <v>72.8</v>
       </c>
       <c r="F37">
         <v>73.3</v>
       </c>
-      <c r="G37" s="8">
+      <c r="G37" s="6">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>57</v>
       </c>
-      <c r="C38" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E38" s="9">
+      <c r="C38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38">
         <v>75.5</v>
       </c>
       <c r="F38">
         <v>76.099999999999994</v>
       </c>
-      <c r="G38" s="8">
+      <c r="G38" s="6">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
+      <c r="C39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C40" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E40" s="9">
+      <c r="C40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40">
         <v>183.9</v>
       </c>
-      <c r="F40" s="12">
+      <c r="F40" s="9">
         <v>186.5</v>
       </c>
-      <c r="G40" s="8">
+      <c r="G40" s="6">
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E41" s="9">
+      <c r="C41" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41">
         <v>189.7</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F41" s="10">
         <v>192.4</v>
       </c>
-      <c r="G41" s="8">
+      <c r="G41" s="6">
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F42" s="14"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
+      <c r="C42" t="b">
+        <v>1</v>
+      </c>
+      <c r="F42" s="11"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C43" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E43" s="9">
+      <c r="C43" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43">
         <v>66.099999999999994</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F43" s="10">
         <v>66.599999999999994</v>
       </c>
-      <c r="G43" s="8">
+      <c r="G43" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="11" t="s">
+    <row r="44" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C44" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E44" s="9">
+      <c r="C44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44">
         <v>66.3</v>
       </c>
-      <c r="F44" s="15">
+      <c r="F44" s="12">
         <v>66.900000000000006</v>
       </c>
-      <c r="G44" s="8">
+      <c r="G44" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>64</v>
       </c>
-      <c r="C45" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>65</v>
       </c>
-      <c r="C46" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E46" s="9">
+      <c r="C46" t="b">
+        <v>1</v>
+      </c>
+      <c r="E46">
         <v>1014.5</v>
       </c>
       <c r="F46">
         <v>1031.5999999999999</v>
       </c>
-      <c r="G46" s="8">
+      <c r="G46" s="6">
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>66</v>
       </c>
-      <c r="C47" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E47" s="9">
+      <c r="C47" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47">
         <v>1030.5</v>
       </c>
       <c r="F47">
         <v>1046.8</v>
       </c>
-      <c r="G47" s="8">
+      <c r="G47" s="6">
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>67</v>
       </c>
-      <c r="C48" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
+      <c r="C48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C49" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E49" s="9">
+      <c r="C49" t="b">
+        <v>1</v>
+      </c>
+      <c r="E49">
         <v>450.4</v>
       </c>
-      <c r="F49" s="11">
+      <c r="F49" s="8">
         <v>450.2</v>
       </c>
-      <c r="G49" s="8">
+      <c r="G49" s="6">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C50" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E50" s="9">
+      <c r="C50" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50">
         <v>460.2</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F50" s="8">
         <v>459.3</v>
       </c>
-      <c r="G50" s="8">
+      <c r="G50" s="6">
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>70</v>
       </c>
-      <c r="C51" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>71</v>
       </c>
-      <c r="C52" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E52" s="9">
+      <c r="C52" t="b">
+        <v>1</v>
+      </c>
+      <c r="E52">
         <v>31.6</v>
       </c>
       <c r="F52">
         <v>31.3</v>
       </c>
-      <c r="G52" s="8">
+      <c r="G52" s="6">
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>72</v>
       </c>
-      <c r="C53" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E53" s="9">
+      <c r="C53" t="b">
+        <v>1</v>
+      </c>
+      <c r="E53">
         <v>33.1</v>
       </c>
       <c r="F53">
         <v>32.6</v>
       </c>
-      <c r="G53" s="8">
+      <c r="G53" s="6">
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>73</v>
       </c>
-      <c r="C54" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>74</v>
       </c>
-      <c r="C55" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E55" s="9">
+      <c r="C55" t="b">
+        <v>1</v>
+      </c>
+      <c r="E55">
         <v>217.2</v>
       </c>
       <c r="F55">
         <v>217.9</v>
       </c>
-      <c r="G55" s="8">
+      <c r="G55" s="6">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>75</v>
       </c>
-      <c r="C56" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E56" s="9">
+      <c r="C56" t="b">
+        <v>1</v>
+      </c>
+      <c r="E56">
         <v>226.3</v>
       </c>
       <c r="F56">
         <v>226.5</v>
       </c>
-      <c r="G56" s="8">
+      <c r="G56" s="6">
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>76</v>
       </c>
-      <c r="C57" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>77</v>
       </c>
-      <c r="C58" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E58" s="9">
+      <c r="C58" t="b">
+        <v>1</v>
+      </c>
+      <c r="E58">
         <v>176.9</v>
       </c>
       <c r="F58">
         <v>176.6</v>
       </c>
-      <c r="G58" s="8">
+      <c r="G58" s="6">
         <v>0.02</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>78</v>
       </c>
-      <c r="C59" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E59" s="9">
+      <c r="C59" t="b">
+        <v>1</v>
+      </c>
+      <c r="E59">
         <v>175.1</v>
       </c>
       <c r="F59">
         <v>174.9</v>
       </c>
-      <c r="G59" s="8">
+      <c r="G59" s="6">
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>79</v>
       </c>
-      <c r="C60" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>80</v>
       </c>
-      <c r="C61" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E61" s="9">
+      <c r="C61" t="b">
+        <v>1</v>
+      </c>
+      <c r="E61">
         <v>24.6</v>
       </c>
       <c r="F61">
         <v>24.4</v>
       </c>
-      <c r="G61" s="8">
+      <c r="G61" s="6">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>81</v>
       </c>
-      <c r="C62" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E62" s="9">
+      <c r="C62" t="b">
+        <v>1</v>
+      </c>
+      <c r="E62">
         <v>25.7</v>
       </c>
       <c r="F62">
         <v>25.3</v>
       </c>
-      <c r="G62" s="8">
+      <c r="G62" s="6">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>82</v>
       </c>
-      <c r="C63" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>83</v>
       </c>
-      <c r="C64" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E64" s="9">
+      <c r="C64" t="b">
+        <v>1</v>
+      </c>
+      <c r="E64">
         <v>564.1</v>
       </c>
       <c r="F64">
         <v>581.4</v>
       </c>
-      <c r="G64" s="8">
+      <c r="G64" s="6">
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>84</v>
       </c>
-      <c r="C65" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E65" s="9">
+      <c r="C65" t="b">
+        <v>1</v>
+      </c>
+      <c r="E65">
         <v>570.29999999999995</v>
       </c>
       <c r="F65">
         <v>587.5</v>
       </c>
-      <c r="G65" s="8">
+      <c r="G65" s="6">
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>85</v>
       </c>
-      <c r="C66" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="11" t="s">
+      <c r="C66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C67" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E67" s="9">
+      <c r="C67" t="b">
+        <v>1</v>
+      </c>
+      <c r="E67">
         <v>438.9</v>
       </c>
-      <c r="F67" s="11">
+      <c r="F67" s="8">
         <v>437</v>
       </c>
-      <c r="G67" s="8">
+      <c r="G67" s="6">
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="11" t="s">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C68" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E68" s="9">
+      <c r="C68" t="b">
+        <v>1</v>
+      </c>
+      <c r="E68">
         <v>458.6</v>
       </c>
-      <c r="F68" s="11">
+      <c r="F68" s="8">
         <v>457.4</v>
       </c>
-      <c r="G68" s="8">
+      <c r="G68" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>88</v>
       </c>
-      <c r="C69" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>89</v>
       </c>
-      <c r="C70" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E70" s="9">
+      <c r="C70" t="b">
+        <v>1</v>
+      </c>
+      <c r="E70">
         <v>416.2</v>
       </c>
       <c r="F70">
         <v>414.3</v>
       </c>
-      <c r="G70" s="8">
+      <c r="G70" s="6">
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>90</v>
       </c>
-      <c r="C71" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E71" s="9">
+      <c r="C71" t="b">
+        <v>1</v>
+      </c>
+      <c r="E71">
         <v>435.8</v>
       </c>
       <c r="F71">
         <v>434.5</v>
       </c>
-      <c r="G71" s="8">
+      <c r="G71" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>91</v>
       </c>
-      <c r="C72" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>92</v>
       </c>
-      <c r="C73" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E73" s="9">
+      <c r="C73" t="b">
+        <v>1</v>
+      </c>
+      <c r="E73">
         <v>22.7</v>
       </c>
       <c r="F73">
         <v>22.7</v>
       </c>
-      <c r="G73" s="8">
+      <c r="G73" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>93</v>
       </c>
-      <c r="C74" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E74" s="9">
+      <c r="C74" t="b">
+        <v>1</v>
+      </c>
+      <c r="E74">
         <v>22.8</v>
       </c>
       <c r="F74">
         <v>22.8</v>
       </c>
-      <c r="G74" s="8">
+      <c r="G74" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>94</v>
       </c>
-      <c r="C75" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="11" t="s">
+      <c r="C75" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C76" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E76" s="9">
+      <c r="C76" t="b">
+        <v>1</v>
+      </c>
+      <c r="E76">
         <v>238.5</v>
       </c>
-      <c r="F76" s="11">
+      <c r="F76" s="8">
         <v>241.9</v>
       </c>
-      <c r="G76" s="8">
+      <c r="G76" s="6">
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="11" t="s">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C77" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E77" s="9">
+      <c r="C77" t="b">
+        <v>1</v>
+      </c>
+      <c r="E77">
         <v>260.7</v>
       </c>
-      <c r="F77" s="11">
+      <c r="F77" s="8">
         <v>263.8</v>
       </c>
-      <c r="G77" s="8">
+      <c r="G77" s="6">
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="9" t="s">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
         <v>97</v>
       </c>
-      <c r="C78" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="9" t="s">
+      <c r="C78" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
         <v>98</v>
       </c>
-      <c r="C79" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E79" s="9">
+      <c r="C79" t="b">
+        <v>1</v>
+      </c>
+      <c r="E79">
         <v>114.5</v>
       </c>
       <c r="F79">
         <v>116.1</v>
       </c>
-      <c r="G79" s="8">
+      <c r="G79" s="6">
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="9" t="s">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
         <v>99</v>
       </c>
-      <c r="C80" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E80" s="9">
+      <c r="C80" t="b">
+        <v>1</v>
+      </c>
+      <c r="E80">
         <v>130.1</v>
       </c>
       <c r="F80">
         <v>131.9</v>
       </c>
-      <c r="G80" s="8">
+      <c r="G80" s="6">
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="9" t="s">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
         <v>100</v>
       </c>
-      <c r="C81" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="11" t="s">
+      <c r="C81" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C82" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E82" s="9">
+      <c r="C82" t="b">
+        <v>1</v>
+      </c>
+      <c r="E82">
         <v>26.9</v>
       </c>
-      <c r="F82" s="11">
+      <c r="F82" s="8">
         <v>27.3</v>
       </c>
-      <c r="G82" s="8">
+      <c r="G82" s="6">
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="11" t="s">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C83" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E83" s="9">
+      <c r="C83" t="b">
+        <v>1</v>
+      </c>
+      <c r="E83">
         <v>28.9</v>
       </c>
-      <c r="F83" s="11">
+      <c r="F83" s="8">
         <v>29.3</v>
       </c>
-      <c r="G83" s="8">
+      <c r="G83" s="6">
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="9" t="s">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
         <v>103</v>
       </c>
-      <c r="C84" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="11" t="s">
+      <c r="C84" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C85" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E85" s="9">
+      <c r="C85" t="b">
+        <v>1</v>
+      </c>
+      <c r="E85">
         <v>10.199999999999999</v>
       </c>
-      <c r="F85" s="11">
+      <c r="F85" s="8">
         <v>10.4</v>
       </c>
-      <c r="G85" s="8">
+      <c r="G85" s="6">
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="11" t="s">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C86" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E86" s="9">
+      <c r="C86" t="b">
+        <v>1</v>
+      </c>
+      <c r="E86">
         <v>10.9</v>
       </c>
-      <c r="F86" s="11">
+      <c r="F86" s="8">
         <v>11.1</v>
       </c>
-      <c r="G86" s="8">
+      <c r="G86" s="6">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="9" t="s">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
         <v>106</v>
       </c>
-      <c r="C87" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="9" t="s">
+      <c r="C87" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
         <v>107</v>
       </c>
-      <c r="C88" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E88" s="9">
+      <c r="C88" t="b">
+        <v>1</v>
+      </c>
+      <c r="E88">
         <v>77.400000000000006</v>
       </c>
-      <c r="F88" s="9">
+      <c r="F88">
         <v>78.400000000000006</v>
       </c>
-      <c r="G88" s="8">
+      <c r="G88" s="6">
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="9" t="s">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
         <v>108</v>
       </c>
-      <c r="C89" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E89" s="9">
+      <c r="C89" t="b">
+        <v>1</v>
+      </c>
+      <c r="E89">
         <v>90.3</v>
       </c>
-      <c r="F89" s="9">
+      <c r="F89">
         <v>91.6</v>
       </c>
-      <c r="G89" s="8">
+      <c r="G89" s="6">
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="9" t="s">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
         <v>109</v>
       </c>
-      <c r="C90" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="9" t="s">
+      <c r="C90" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
         <v>110</v>
       </c>
-      <c r="C91" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E91" s="9">
+      <c r="C91" t="b">
+        <v>1</v>
+      </c>
+      <c r="E91">
         <v>266.60000000000002</v>
       </c>
       <c r="F91">
         <v>266.8</v>
       </c>
-      <c r="G91" s="8">
+      <c r="G91" s="6">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="9" t="s">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
         <v>111</v>
       </c>
-      <c r="C92" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E92" s="9">
+      <c r="C92" t="b">
+        <v>1</v>
+      </c>
+      <c r="E92">
         <v>298.89999999999998</v>
       </c>
       <c r="F92">
         <v>297.8</v>
       </c>
-      <c r="G92" s="8">
+      <c r="G92" s="6">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="9" t="s">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
         <v>112</v>
       </c>
-      <c r="C93" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="11" t="s">
+      <c r="C93" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C94" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E94" s="9">
+      <c r="C94" t="b">
+        <v>1</v>
+      </c>
+      <c r="E94">
         <v>150.1</v>
       </c>
-      <c r="F94" s="11">
+      <c r="F94" s="8">
         <v>150.19999999999999</v>
       </c>
-      <c r="G94" s="8">
+      <c r="G94" s="6">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="11" t="s">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C95" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E95" s="9">
+      <c r="C95" t="b">
+        <v>1</v>
+      </c>
+      <c r="E95">
         <v>165.8</v>
       </c>
-      <c r="F95" s="11">
+      <c r="F95" s="8">
         <v>164.7</v>
       </c>
-      <c r="G95" s="8">
+      <c r="G95" s="6">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="9" t="s">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
         <v>115</v>
       </c>
-      <c r="C96" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F96" s="9"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="11" t="s">
+      <c r="C96" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C97" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E97" s="9">
+      <c r="C97" t="b">
+        <v>1</v>
+      </c>
+      <c r="E97">
         <v>43</v>
       </c>
-      <c r="F97" s="11">
+      <c r="F97" s="8">
         <v>42.5</v>
       </c>
-      <c r="G97" s="8">
+      <c r="G97" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="11" t="s">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A98" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C98" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E98" s="9">
+      <c r="C98" t="b">
+        <v>1</v>
+      </c>
+      <c r="E98">
         <v>52.3</v>
       </c>
-      <c r="F98" s="11">
+      <c r="F98" s="8">
         <v>51.9</v>
       </c>
-      <c r="G98" s="8">
+      <c r="G98" s="6">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="9" t="s">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
         <v>118</v>
       </c>
-      <c r="C99" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="9" t="s">
+      <c r="C99" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
         <v>119</v>
       </c>
-      <c r="C100" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E100" s="9">
+      <c r="C100" t="b">
+        <v>1</v>
+      </c>
+      <c r="E100">
         <v>73.5</v>
       </c>
       <c r="F100">
         <v>74</v>
       </c>
-      <c r="G100" s="8">
+      <c r="G100" s="6">
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="9" t="s">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
         <v>120</v>
       </c>
-      <c r="C101" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E101" s="9">
+      <c r="C101" t="b">
+        <v>1</v>
+      </c>
+      <c r="E101">
         <v>80.7</v>
       </c>
       <c r="F101">
         <v>81.3</v>
       </c>
-      <c r="G101" s="8">
+      <c r="G101" s="6">
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>121</v>
       </c>
-      <c r="C102" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="11" t="s">
+      <c r="C102" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C103" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E103" s="9">
+      <c r="C103" t="b">
+        <v>1</v>
+      </c>
+      <c r="E103">
         <v>407.7</v>
       </c>
-      <c r="F103" s="11">
+      <c r="F103" s="8">
         <v>412.7</v>
       </c>
-      <c r="G103" s="8">
+      <c r="G103" s="6">
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="11" t="s">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A104" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C104" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E104" s="9">
+      <c r="C104" t="b">
+        <v>1</v>
+      </c>
+      <c r="E104">
         <v>412.5</v>
       </c>
-      <c r="F104" s="11">
+      <c r="F104" s="8">
         <v>417.9</v>
       </c>
-      <c r="G104" s="8">
+      <c r="G104" s="6">
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>124</v>
       </c>
-      <c r="C105" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="11" t="s">
+      <c r="C105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C106" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E106" s="9">
+      <c r="C106" t="b">
+        <v>1</v>
+      </c>
+      <c r="E106">
         <v>547.1</v>
       </c>
-      <c r="F106" s="11">
+      <c r="F106" s="8">
         <v>559.29999999999995</v>
       </c>
-      <c r="G106" s="8">
+      <c r="G106" s="6">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="11" t="s">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A107" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C107" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E107" s="9">
+      <c r="C107" t="b">
+        <v>1</v>
+      </c>
+      <c r="E107">
         <v>563</v>
       </c>
-      <c r="F107" s="11">
+      <c r="F107" s="8">
         <v>575.1</v>
       </c>
-      <c r="G107" s="8">
+      <c r="G107" s="6">
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>127</v>
       </c>
-      <c r="C108" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="11" t="s">
+      <c r="C108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A109" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C109" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E109" s="9">
+      <c r="C109" t="b">
+        <v>1</v>
+      </c>
+      <c r="E109">
         <v>775.5</v>
       </c>
-      <c r="F109" s="11">
+      <c r="F109" s="8">
         <v>799</v>
       </c>
-      <c r="G109" s="8">
+      <c r="G109" s="6">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="11" t="s">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A110" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C110" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E110" s="9">
+      <c r="C110" t="b">
+        <v>1</v>
+      </c>
+      <c r="E110">
         <v>778.9</v>
       </c>
-      <c r="F110" s="11">
+      <c r="F110" s="8">
         <v>803.9</v>
       </c>
-      <c r="G110" s="8">
+      <c r="G110" s="6">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>130</v>
       </c>
-      <c r="C111" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="11" t="s">
+      <c r="C111" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A112" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C112" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E112" s="9">
+      <c r="C112" t="b">
+        <v>1</v>
+      </c>
+      <c r="E112">
         <v>1204</v>
       </c>
-      <c r="F112" s="11">
+      <c r="F112" s="8">
         <v>1238.3</v>
       </c>
-      <c r="G112" s="8">
+      <c r="G112" s="6">
         <v>0.03</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="11" t="s">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A113" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C113" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E113" s="9">
+      <c r="C113" t="b">
+        <v>1</v>
+      </c>
+      <c r="E113">
         <v>1216.2</v>
       </c>
-      <c r="F113" s="11">
+      <c r="F113" s="8">
         <v>1249</v>
       </c>
-      <c r="G113" s="8">
+      <c r="G113" s="6">
         <v>0.03</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>133</v>
       </c>
-      <c r="C114" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="11" t="s">
+      <c r="C114" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A115" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C115" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E115" s="9">
+      <c r="C115" t="b">
+        <v>1</v>
+      </c>
+      <c r="E115">
         <v>170.9</v>
       </c>
-      <c r="F115" s="11">
+      <c r="F115" s="8">
         <v>175.1</v>
       </c>
-      <c r="G115" s="8">
+      <c r="G115" s="6">
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="11" t="s">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A116" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C116" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E116" s="9">
+      <c r="C116" t="b">
+        <v>1</v>
+      </c>
+      <c r="E116">
         <v>172</v>
       </c>
-      <c r="F116" s="11">
+      <c r="F116" s="8">
         <v>176.7</v>
       </c>
-      <c r="G116" s="8">
+      <c r="G116" s="6">
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>136</v>
       </c>
-      <c r="C117" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="11" t="s">
+      <c r="C117" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A118" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C118" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E118" s="9">
+      <c r="C118" t="b">
+        <v>1</v>
+      </c>
+      <c r="E118">
         <v>302.3</v>
       </c>
-      <c r="F118" s="11">
+      <c r="F118" s="8">
         <v>315.39999999999998</v>
       </c>
-      <c r="G118" s="8">
+      <c r="G118" s="6">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="11" t="s">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A119" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C119" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E119" s="9">
+      <c r="C119" t="b">
+        <v>1</v>
+      </c>
+      <c r="E119">
         <v>305.7</v>
       </c>
-      <c r="F119" s="11">
+      <c r="F119" s="8">
         <v>318.89999999999998</v>
       </c>
-      <c r="G119" s="8">
+      <c r="G119" s="6">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>139</v>
       </c>
-      <c r="C120" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C120" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>140</v>
       </c>
-      <c r="C121" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E121" s="9">
+      <c r="C121" t="b">
+        <v>1</v>
+      </c>
+      <c r="E121">
         <v>9209.6</v>
       </c>
       <c r="F121">
         <v>9356</v>
       </c>
-      <c r="G121" s="8">
+      <c r="G121" s="6">
         <v>0.02</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>141</v>
       </c>
-      <c r="C122" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E122" s="9">
+      <c r="C122" t="b">
+        <v>1</v>
+      </c>
+      <c r="E122">
         <v>9388.9</v>
       </c>
       <c r="F122">
         <v>9536.9</v>
       </c>
-      <c r="G122" s="8">
+      <c r="G122" s="6">
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
@@ -2832,14 +2794,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.140625" customWidth="1"/>
-    <col min="2" max="2" width="36.85546875" customWidth="1"/>
-    <col min="3" max="3" width="68.42578125" customWidth="1"/>
+    <col min="1" max="1" width="45.1796875" customWidth="1"/>
+    <col min="2" max="2" width="36.81640625" customWidth="1"/>
+    <col min="3" max="3" width="68.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>170</v>
       </c>
@@ -2850,7 +2812,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>144</v>
       </c>
@@ -2859,7 +2821,7 @@
         <v>7.4647497926458081E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>145</v>
       </c>
@@ -2870,7 +2832,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>146</v>
       </c>
@@ -2881,7 +2843,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>147</v>
       </c>
@@ -2890,7 +2852,7 @@
         <v>5.8215962441314981E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>148</v>
       </c>
@@ -2899,7 +2861,7 @@
         <v>8.0025954363577585E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>149</v>
       </c>
@@ -2908,7 +2870,7 @@
         <v>0.13221153846153846</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>150</v>
       </c>
@@ -2917,7 +2879,7 @@
         <v>4.3859649122807022E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>151</v>
       </c>
@@ -2926,7 +2888,7 @@
         <v>2.3910528345545766E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>152</v>
       </c>
@@ -2935,7 +2897,7 @@
         <v>4.4599912549191031E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>153</v>
       </c>
@@ -2944,7 +2906,7 @@
         <v>1.9812758545612937E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>154</v>
       </c>
@@ -2953,7 +2915,7 @@
         <v>8.3017437452615639E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>155</v>
       </c>
@@ -2962,7 +2924,7 @@
         <v>6.8259385665529013E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>156</v>
       </c>
@@ -2971,7 +2933,7 @@
         <v>6.3063063063063002E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>157</v>
       </c>
@@ -2980,7 +2942,7 @@
         <v>8.8038858530661818E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>158</v>
       </c>
@@ -2989,7 +2951,7 @@
         <v>0.18111753371868977</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>159</v>
       </c>
@@ -2998,7 +2960,7 @@
         <v>1.2443168222062668E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>160</v>
       </c>
@@ -3007,7 +2969,7 @@
         <v>6.0952854832690348E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>161</v>
       </c>
@@ -3016,7 +2978,7 @@
         <v>9.0548953027730309E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>162</v>
       </c>
@@ -3025,7 +2987,7 @@
         <v>2.7473482872544024E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>163</v>
       </c>
@@ -3034,7 +2996,7 @@
         <v>8.5668534827862651E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>164</v>
       </c>
@@ -3043,7 +3005,7 @@
         <v>8.5668534827862651E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>165</v>
       </c>
@@ -3052,7 +3014,7 @@
         <v>1.0975227343994984E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>166</v>
       </c>
@@ -3063,7 +3025,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>167</v>
       </c>
@@ -3074,7 +3036,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>168</v>
       </c>
@@ -3097,241 +3059,241 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="46.28515625" customWidth="1"/>
+    <col min="1" max="1" width="46.26953125" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="7" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <f>Results!B2</f>
         <v>7.4647497926458081E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3">
         <f>Results!B3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>146</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4">
         <f>Results!B4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>147</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <f>Results!B5</f>
         <v>5.8215962441314981E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>148</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <f>Results!B6</f>
         <v>8.0025954363577585E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>149</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <f>Results!B7</f>
         <v>0.13221153846153846</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>150</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <f>Results!B8</f>
         <v>4.3859649122807022E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>151</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <f>Results!B9</f>
         <v>2.3910528345545766E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>152</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <f>Results!B10</f>
         <v>4.4599912549191031E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>153</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <f>Results!B11</f>
         <v>1.9812758545612937E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>154</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <f>Results!B12</f>
         <v>8.3017437452615639E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>155</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <f>Results!B13</f>
         <v>6.8259385665529013E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>156</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <f>Results!B14</f>
         <v>6.3063063063063002E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>157</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <f>Results!B15</f>
         <v>8.8038858530661818E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>158</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <f>Results!B16</f>
         <v>0.18111753371868977</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>159</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <f>Results!B17</f>
         <v>1.2443168222062668E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>160</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <f>Results!B18</f>
         <v>6.0952854832690348E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>161</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <f>Results!B19</f>
         <v>9.0548953027730309E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>162</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <f>Results!B20</f>
         <v>2.7473482872544024E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>163</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <f>Results!B21</f>
         <v>8.5668534827862651E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>164</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <f>Results!B22</f>
         <v>8.5668534827862651E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>165</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <f>Results!B23</f>
         <v>1.0975227343994984E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>166</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24">
         <f>Results!B24</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>167</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25">
         <f>Results!B25</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>168</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="5">
         <f>Results!B26</f>
         <v>1.8731602890018429E-3</v>
       </c>
@@ -3340,4 +3302,285 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f85c0eb68479ad8b8987805fd5b8836b">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7dbc72841229da9eaa30ebb1456cd70" ns2:_="" ns3:_="">
+    <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <xsd:import namespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="00484652-42e1-479e-92f4-fb0efddcdf60" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="eca5b831-c3dc-41cf-bd85-218b82cecb21" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="13" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c5b79d03-3bfd-4c46-9947-056a2403f6c9}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A1936D8-5E4C-40EE-8006-4BD054FFA0DB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3184476B-819C-4CC7-A557-967AF062915E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51B70D78-2337-41C3-885A-A2B75A909B18}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/InputData/indst/PPRiFUfERoIF/Pot Perc Reduction in Fuel Use from Early Retirement.xlsx
+++ b/InputData/indst/PPRiFUfERoIF/Pot Perc Reduction in Fuel Use from Early Retirement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://energyinnovation.sharepoint.com/sites/EUEPSModeling/Shared Documents/InputData_EI+Agora/indst/PPRiFUfERoIF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\indst\PPRiFUfERoIF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4898E6-CA5E-4B15-861F-FDDE8D5411E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4898E6-CA5E-4B15-861F-FDDE8D5411E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="1820" windowWidth="14400" windowHeight="8170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4245" yWindow="1290" windowWidth="23580" windowHeight="15330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -569,7 +569,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -674,7 +674,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -682,8 +682,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -712,9 +715,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -752,9 +755,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -787,9 +790,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -822,9 +842,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1000,20 +1037,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7265625" customWidth="1"/>
-    <col min="2" max="2" width="81.54296875" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="81.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1021,92 +1058,92 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2014</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -1123,44 +1160,44 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="106" customWidth="1"/>
-    <col min="2" max="5" width="9.1796875" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" customWidth="1"/>
+    <col min="2" max="5" width="9.140625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="9">
         <v>2029</v>
       </c>
       <c r="F5">
@@ -1170,1616 +1207,1617 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C6" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7">
+      <c r="C7" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9">
         <v>20496.3</v>
       </c>
       <c r="F7">
         <v>20991.3</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="8">
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8">
+      <c r="C8" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9">
         <v>20637.400000000001</v>
       </c>
       <c r="F8">
         <v>21138.5</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="8">
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C9" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10">
+      <c r="C10" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="9">
         <v>157.19999999999999</v>
       </c>
       <c r="F10">
         <v>158.6</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="8">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
-      <c r="C11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11">
+      <c r="C11" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="9">
         <v>157.19999999999999</v>
       </c>
       <c r="F11">
         <v>158.6</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="8">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>33</v>
       </c>
-      <c r="C14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
+      <c r="C14" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C15" t="b">
-        <v>1</v>
-      </c>
-      <c r="E15">
+      <c r="C15" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="9">
         <v>355.7</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="11">
         <v>359</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="8">
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C16" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16">
+      <c r="C16" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="9">
         <v>358.2</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="11">
         <v>361.7</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="8">
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>36</v>
       </c>
-      <c r="C17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="8" t="s">
+      <c r="C17" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C18" t="b">
-        <v>1</v>
-      </c>
-      <c r="E18">
+      <c r="C18" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="9">
         <v>530.6</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="11">
         <v>529.4</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="8">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C19" t="b">
-        <v>1</v>
-      </c>
-      <c r="E19">
+      <c r="C19" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" s="9">
         <v>534.6</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="11">
         <v>532.5</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="8">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>39</v>
       </c>
-      <c r="C20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="8" t="s">
+      <c r="C20" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C21" t="b">
-        <v>1</v>
-      </c>
-      <c r="E21">
+      <c r="C21" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" s="9">
         <v>1476.6</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="11">
         <v>1492</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="8">
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C22" t="b">
-        <v>1</v>
-      </c>
-      <c r="E22">
+      <c r="C22" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="9">
         <v>1475.7</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="11">
         <v>1494.8</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="8">
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>43</v>
       </c>
-      <c r="C24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="8" t="s">
+      <c r="C24" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C25" t="b">
-        <v>1</v>
-      </c>
-      <c r="E25">
+      <c r="C25" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" s="9">
         <v>808.6</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="12">
         <v>822</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="8" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C26" t="b">
-        <v>1</v>
-      </c>
-      <c r="E26">
+      <c r="C26" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" s="9">
         <v>814.8</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="13">
         <v>827.6</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>46</v>
       </c>
-      <c r="C27" t="b">
-        <v>1</v>
-      </c>
-      <c r="F27" s="11"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="8" t="s">
+      <c r="C27" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C28" t="b">
-        <v>1</v>
-      </c>
-      <c r="E28">
+      <c r="C28" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" s="9">
         <v>95.7</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="13">
         <v>95.3</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="8">
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="8" t="s">
+    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C29" t="b">
-        <v>1</v>
-      </c>
-      <c r="E29">
+      <c r="C29" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" s="9">
         <v>97.6</v>
       </c>
-      <c r="F29" s="12">
+      <c r="F29" s="15">
         <v>97.1</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="8">
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>49</v>
       </c>
-      <c r="C30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="8" t="s">
+      <c r="C30" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C31" t="b">
-        <v>1</v>
-      </c>
-      <c r="E31">
+      <c r="C31" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" s="9">
         <v>37.299999999999997</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="11">
         <v>36.1</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="8">
         <v>-3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="8" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C32" t="b">
-        <v>1</v>
-      </c>
-      <c r="E32">
+      <c r="C32" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" s="9">
         <v>42.9</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="11">
         <v>41.6</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="8">
         <v>-2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>52</v>
       </c>
-      <c r="C33" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="8" t="s">
+      <c r="C33" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C34" t="b">
-        <v>1</v>
-      </c>
-      <c r="E34">
+      <c r="C34" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" s="9">
         <v>101.8</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" s="11">
         <v>102.6</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="8">
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="8" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C35" t="b">
-        <v>1</v>
-      </c>
-      <c r="E35">
+      <c r="C35" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" s="9">
         <v>106.6</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="11">
         <v>107.1</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="8">
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>55</v>
       </c>
-      <c r="C36" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C36" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>56</v>
       </c>
-      <c r="C37" t="b">
-        <v>1</v>
-      </c>
-      <c r="E37">
+      <c r="C37" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" s="9">
         <v>72.8</v>
       </c>
       <c r="F37">
         <v>73.3</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37" s="8">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>57</v>
       </c>
-      <c r="C38" t="b">
-        <v>1</v>
-      </c>
-      <c r="E38">
+      <c r="C38" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" s="9">
         <v>75.5</v>
       </c>
       <c r="F38">
         <v>76.099999999999994</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38" s="8">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>58</v>
       </c>
-      <c r="C39" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="8" t="s">
+      <c r="C39" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C40" t="b">
-        <v>1</v>
-      </c>
-      <c r="E40">
+      <c r="C40" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" s="9">
         <v>183.9</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F40" s="12">
         <v>186.5</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G40" s="8">
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="8" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C41" t="b">
-        <v>1</v>
-      </c>
-      <c r="E41">
+      <c r="C41" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" s="9">
         <v>189.7</v>
       </c>
-      <c r="F41" s="10">
+      <c r="F41" s="13">
         <v>192.4</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G41" s="8">
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>61</v>
       </c>
-      <c r="C42" t="b">
-        <v>1</v>
-      </c>
-      <c r="F42" s="11"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="8" t="s">
+      <c r="C42" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F42" s="14"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C43" t="b">
-        <v>1</v>
-      </c>
-      <c r="E43">
+      <c r="C43" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" s="9">
         <v>66.099999999999994</v>
       </c>
-      <c r="F43" s="10">
+      <c r="F43" s="13">
         <v>66.599999999999994</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G43" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="8" t="s">
+    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C44" t="b">
-        <v>1</v>
-      </c>
-      <c r="E44">
+      <c r="C44" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" s="9">
         <v>66.3</v>
       </c>
-      <c r="F44" s="12">
+      <c r="F44" s="15">
         <v>66.900000000000006</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G44" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>64</v>
       </c>
-      <c r="C45" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C45" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>65</v>
       </c>
-      <c r="C46" t="b">
-        <v>1</v>
-      </c>
-      <c r="E46">
+      <c r="C46" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E46" s="9">
         <v>1014.5</v>
       </c>
       <c r="F46">
         <v>1031.5999999999999</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G46" s="8">
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>66</v>
       </c>
-      <c r="C47" t="b">
-        <v>1</v>
-      </c>
-      <c r="E47">
+      <c r="C47" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" s="9">
         <v>1030.5</v>
       </c>
       <c r="F47">
         <v>1046.8</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G47" s="8">
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>67</v>
       </c>
-      <c r="C48" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" s="8" t="s">
+      <c r="C48" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C49" t="b">
-        <v>1</v>
-      </c>
-      <c r="E49">
+      <c r="C49" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E49" s="9">
         <v>450.4</v>
       </c>
-      <c r="F49" s="8">
+      <c r="F49" s="11">
         <v>450.2</v>
       </c>
-      <c r="G49" s="6">
+      <c r="G49" s="8">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="8" t="s">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C50" t="b">
-        <v>1</v>
-      </c>
-      <c r="E50">
+      <c r="C50" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50" s="9">
         <v>460.2</v>
       </c>
-      <c r="F50" s="8">
+      <c r="F50" s="11">
         <v>459.3</v>
       </c>
-      <c r="G50" s="6">
+      <c r="G50" s="8">
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>70</v>
       </c>
-      <c r="C51" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C51" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>71</v>
       </c>
-      <c r="C52" t="b">
-        <v>1</v>
-      </c>
-      <c r="E52">
+      <c r="C52" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E52" s="9">
         <v>31.6</v>
       </c>
       <c r="F52">
         <v>31.3</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G52" s="8">
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>72</v>
       </c>
-      <c r="C53" t="b">
-        <v>1</v>
-      </c>
-      <c r="E53">
+      <c r="C53" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E53" s="9">
         <v>33.1</v>
       </c>
       <c r="F53">
         <v>32.6</v>
       </c>
-      <c r="G53" s="6">
+      <c r="G53" s="8">
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>73</v>
       </c>
-      <c r="C54" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C54" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>74</v>
       </c>
-      <c r="C55" t="b">
-        <v>1</v>
-      </c>
-      <c r="E55">
+      <c r="C55" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E55" s="9">
         <v>217.2</v>
       </c>
       <c r="F55">
         <v>217.9</v>
       </c>
-      <c r="G55" s="6">
+      <c r="G55" s="8">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>75</v>
       </c>
-      <c r="C56" t="b">
-        <v>1</v>
-      </c>
-      <c r="E56">
+      <c r="C56" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E56" s="9">
         <v>226.3</v>
       </c>
       <c r="F56">
         <v>226.5</v>
       </c>
-      <c r="G56" s="6">
+      <c r="G56" s="8">
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>76</v>
       </c>
-      <c r="C57" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C57" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>77</v>
       </c>
-      <c r="C58" t="b">
-        <v>1</v>
-      </c>
-      <c r="E58">
+      <c r="C58" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E58" s="9">
         <v>176.9</v>
       </c>
       <c r="F58">
         <v>176.6</v>
       </c>
-      <c r="G58" s="6">
+      <c r="G58" s="8">
         <v>0.02</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>78</v>
       </c>
-      <c r="C59" t="b">
-        <v>1</v>
-      </c>
-      <c r="E59">
+      <c r="C59" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E59" s="9">
         <v>175.1</v>
       </c>
       <c r="F59">
         <v>174.9</v>
       </c>
-      <c r="G59" s="6">
+      <c r="G59" s="8">
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>79</v>
       </c>
-      <c r="C60" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C60" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>80</v>
       </c>
-      <c r="C61" t="b">
-        <v>1</v>
-      </c>
-      <c r="E61">
+      <c r="C61" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E61" s="9">
         <v>24.6</v>
       </c>
       <c r="F61">
         <v>24.4</v>
       </c>
-      <c r="G61" s="6">
+      <c r="G61" s="8">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>81</v>
       </c>
-      <c r="C62" t="b">
-        <v>1</v>
-      </c>
-      <c r="E62">
+      <c r="C62" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E62" s="9">
         <v>25.7</v>
       </c>
       <c r="F62">
         <v>25.3</v>
       </c>
-      <c r="G62" s="6">
+      <c r="G62" s="8">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>82</v>
       </c>
-      <c r="C63" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C63" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>83</v>
       </c>
-      <c r="C64" t="b">
-        <v>1</v>
-      </c>
-      <c r="E64">
+      <c r="C64" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E64" s="9">
         <v>564.1</v>
       </c>
       <c r="F64">
         <v>581.4</v>
       </c>
-      <c r="G64" s="6">
+      <c r="G64" s="8">
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>84</v>
       </c>
-      <c r="C65" t="b">
-        <v>1</v>
-      </c>
-      <c r="E65">
+      <c r="C65" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E65" s="9">
         <v>570.29999999999995</v>
       </c>
       <c r="F65">
         <v>587.5</v>
       </c>
-      <c r="G65" s="6">
+      <c r="G65" s="8">
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>85</v>
       </c>
-      <c r="C66" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" s="8" t="s">
+      <c r="C66" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C67" t="b">
-        <v>1</v>
-      </c>
-      <c r="E67">
+      <c r="C67" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E67" s="9">
         <v>438.9</v>
       </c>
-      <c r="F67" s="8">
+      <c r="F67" s="11">
         <v>437</v>
       </c>
-      <c r="G67" s="6">
+      <c r="G67" s="8">
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" s="8" t="s">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C68" t="b">
-        <v>1</v>
-      </c>
-      <c r="E68">
+      <c r="C68" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E68" s="9">
         <v>458.6</v>
       </c>
-      <c r="F68" s="8">
+      <c r="F68" s="11">
         <v>457.4</v>
       </c>
-      <c r="G68" s="6">
+      <c r="G68" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>88</v>
       </c>
-      <c r="C69" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C69" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>89</v>
       </c>
-      <c r="C70" t="b">
-        <v>1</v>
-      </c>
-      <c r="E70">
+      <c r="C70" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E70" s="9">
         <v>416.2</v>
       </c>
       <c r="F70">
         <v>414.3</v>
       </c>
-      <c r="G70" s="6">
+      <c r="G70" s="8">
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>90</v>
       </c>
-      <c r="C71" t="b">
-        <v>1</v>
-      </c>
-      <c r="E71">
+      <c r="C71" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E71" s="9">
         <v>435.8</v>
       </c>
       <c r="F71">
         <v>434.5</v>
       </c>
-      <c r="G71" s="6">
+      <c r="G71" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>91</v>
       </c>
-      <c r="C72" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C72" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>92</v>
       </c>
-      <c r="C73" t="b">
-        <v>1</v>
-      </c>
-      <c r="E73">
+      <c r="C73" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E73" s="9">
         <v>22.7</v>
       </c>
       <c r="F73">
         <v>22.7</v>
       </c>
-      <c r="G73" s="6">
+      <c r="G73" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>93</v>
       </c>
-      <c r="C74" t="b">
-        <v>1</v>
-      </c>
-      <c r="E74">
+      <c r="C74" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E74" s="9">
         <v>22.8</v>
       </c>
       <c r="F74">
         <v>22.8</v>
       </c>
-      <c r="G74" s="6">
+      <c r="G74" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>94</v>
       </c>
-      <c r="C75" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76" s="8" t="s">
+      <c r="C75" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C76" t="b">
-        <v>1</v>
-      </c>
-      <c r="E76">
+      <c r="C76" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E76" s="9">
         <v>238.5</v>
       </c>
-      <c r="F76" s="8">
+      <c r="F76" s="11">
         <v>241.9</v>
       </c>
-      <c r="G76" s="6">
+      <c r="G76" s="8">
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A77" s="8" t="s">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C77" t="b">
-        <v>1</v>
-      </c>
-      <c r="E77">
+      <c r="C77" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E77" s="9">
         <v>260.7</v>
       </c>
-      <c r="F77" s="8">
+      <c r="F77" s="11">
         <v>263.8</v>
       </c>
-      <c r="G77" s="6">
+      <c r="G77" s="8">
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C78" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
+      <c r="C78" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C79" t="b">
-        <v>1</v>
-      </c>
-      <c r="E79">
+      <c r="C79" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E79" s="9">
         <v>114.5</v>
       </c>
       <c r="F79">
         <v>116.1</v>
       </c>
-      <c r="G79" s="6">
+      <c r="G79" s="8">
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C80" t="b">
-        <v>1</v>
-      </c>
-      <c r="E80">
+      <c r="C80" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E80" s="9">
         <v>130.1</v>
       </c>
       <c r="F80">
         <v>131.9</v>
       </c>
-      <c r="G80" s="6">
+      <c r="G80" s="8">
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C81" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" s="8" t="s">
+      <c r="C81" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C82" t="b">
-        <v>1</v>
-      </c>
-      <c r="E82">
+      <c r="C82" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E82" s="9">
         <v>26.9</v>
       </c>
-      <c r="F82" s="8">
+      <c r="F82" s="11">
         <v>27.3</v>
       </c>
-      <c r="G82" s="6">
+      <c r="G82" s="8">
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" s="8" t="s">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C83" t="b">
-        <v>1</v>
-      </c>
-      <c r="E83">
+      <c r="C83" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E83" s="9">
         <v>28.9</v>
       </c>
-      <c r="F83" s="8">
+      <c r="F83" s="11">
         <v>29.3</v>
       </c>
-      <c r="G83" s="6">
+      <c r="G83" s="8">
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C84" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" s="8" t="s">
+      <c r="C84" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C85" t="b">
-        <v>1</v>
-      </c>
-      <c r="E85">
+      <c r="C85" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E85" s="9">
         <v>10.199999999999999</v>
       </c>
-      <c r="F85" s="8">
+      <c r="F85" s="11">
         <v>10.4</v>
       </c>
-      <c r="G85" s="6">
+      <c r="G85" s="8">
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A86" s="8" t="s">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C86" t="b">
-        <v>1</v>
-      </c>
-      <c r="E86">
+      <c r="C86" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E86" s="9">
         <v>10.9</v>
       </c>
-      <c r="F86" s="8">
+      <c r="F86" s="11">
         <v>11.1</v>
       </c>
-      <c r="G86" s="6">
+      <c r="G86" s="8">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C87" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
+      <c r="C87" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C88" t="b">
-        <v>1</v>
-      </c>
-      <c r="E88">
+      <c r="C88" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E88" s="9">
         <v>77.400000000000006</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="9">
         <v>78.400000000000006</v>
       </c>
-      <c r="G88" s="6">
+      <c r="G88" s="8">
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C89" t="b">
-        <v>1</v>
-      </c>
-      <c r="E89">
+      <c r="C89" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E89" s="9">
         <v>90.3</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="9">
         <v>91.6</v>
       </c>
-      <c r="G89" s="6">
+      <c r="G89" s="8">
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C90" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
+      <c r="C90" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C91" t="b">
-        <v>1</v>
-      </c>
-      <c r="E91">
+      <c r="C91" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E91" s="9">
         <v>266.60000000000002</v>
       </c>
       <c r="F91">
         <v>266.8</v>
       </c>
-      <c r="G91" s="6">
+      <c r="G91" s="8">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C92" t="b">
-        <v>1</v>
-      </c>
-      <c r="E92">
+      <c r="C92" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E92" s="9">
         <v>298.89999999999998</v>
       </c>
       <c r="F92">
         <v>297.8</v>
       </c>
-      <c r="G92" s="6">
+      <c r="G92" s="8">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C93" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A94" s="8" t="s">
+      <c r="C93" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C94" t="b">
-        <v>1</v>
-      </c>
-      <c r="E94">
+      <c r="C94" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E94" s="9">
         <v>150.1</v>
       </c>
-      <c r="F94" s="8">
+      <c r="F94" s="11">
         <v>150.19999999999999</v>
       </c>
-      <c r="G94" s="6">
+      <c r="G94" s="8">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A95" s="8" t="s">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C95" t="b">
-        <v>1</v>
-      </c>
-      <c r="E95">
+      <c r="C95" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E95" s="9">
         <v>165.8</v>
       </c>
-      <c r="F95" s="8">
+      <c r="F95" s="11">
         <v>164.7</v>
       </c>
-      <c r="G95" s="6">
+      <c r="G95" s="8">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C96" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A97" s="8" t="s">
+      <c r="C96" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F96" s="9"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C97" t="b">
-        <v>1</v>
-      </c>
-      <c r="E97">
+      <c r="C97" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E97" s="9">
         <v>43</v>
       </c>
-      <c r="F97" s="8">
+      <c r="F97" s="11">
         <v>42.5</v>
       </c>
-      <c r="G97" s="6">
+      <c r="G97" s="8">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A98" s="8" t="s">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C98" t="b">
-        <v>1</v>
-      </c>
-      <c r="E98">
+      <c r="C98" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E98" s="9">
         <v>52.3</v>
       </c>
-      <c r="F98" s="8">
+      <c r="F98" s="11">
         <v>51.9</v>
       </c>
-      <c r="G98" s="6">
+      <c r="G98" s="8">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C99" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
+      <c r="C99" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C100" t="b">
-        <v>1</v>
-      </c>
-      <c r="E100">
+      <c r="C100" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E100" s="9">
         <v>73.5</v>
       </c>
       <c r="F100">
         <v>74</v>
       </c>
-      <c r="G100" s="6">
+      <c r="G100" s="8">
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C101" t="b">
-        <v>1</v>
-      </c>
-      <c r="E101">
+      <c r="C101" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E101" s="9">
         <v>80.7</v>
       </c>
       <c r="F101">
         <v>81.3</v>
       </c>
-      <c r="G101" s="6">
+      <c r="G101" s="8">
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>121</v>
       </c>
-      <c r="C102" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A103" s="8" t="s">
+      <c r="C102" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C103" t="b">
-        <v>1</v>
-      </c>
-      <c r="E103">
+      <c r="C103" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E103" s="9">
         <v>407.7</v>
       </c>
-      <c r="F103" s="8">
+      <c r="F103" s="11">
         <v>412.7</v>
       </c>
-      <c r="G103" s="6">
+      <c r="G103" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A104" s="8" t="s">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C104" t="b">
-        <v>1</v>
-      </c>
-      <c r="E104">
+      <c r="C104" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E104" s="9">
         <v>412.5</v>
       </c>
-      <c r="F104" s="8">
+      <c r="F104" s="11">
         <v>417.9</v>
       </c>
-      <c r="G104" s="6">
+      <c r="G104" s="8">
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>124</v>
       </c>
-      <c r="C105" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A106" s="8" t="s">
+      <c r="C105" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C106" t="b">
-        <v>1</v>
-      </c>
-      <c r="E106">
+      <c r="C106" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E106" s="9">
         <v>547.1</v>
       </c>
-      <c r="F106" s="8">
+      <c r="F106" s="11">
         <v>559.29999999999995</v>
       </c>
-      <c r="G106" s="6">
+      <c r="G106" s="8">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A107" s="8" t="s">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C107" t="b">
-        <v>1</v>
-      </c>
-      <c r="E107">
+      <c r="C107" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E107" s="9">
         <v>563</v>
       </c>
-      <c r="F107" s="8">
+      <c r="F107" s="11">
         <v>575.1</v>
       </c>
-      <c r="G107" s="6">
+      <c r="G107" s="8">
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>127</v>
       </c>
-      <c r="C108" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A109" s="8" t="s">
+      <c r="C108" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C109" t="b">
-        <v>1</v>
-      </c>
-      <c r="E109">
+      <c r="C109" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E109" s="9">
         <v>775.5</v>
       </c>
-      <c r="F109" s="8">
+      <c r="F109" s="11">
         <v>799</v>
       </c>
-      <c r="G109" s="6">
+      <c r="G109" s="8">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A110" s="8" t="s">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C110" t="b">
-        <v>1</v>
-      </c>
-      <c r="E110">
+      <c r="C110" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E110" s="9">
         <v>778.9</v>
       </c>
-      <c r="F110" s="8">
+      <c r="F110" s="11">
         <v>803.9</v>
       </c>
-      <c r="G110" s="6">
+      <c r="G110" s="8">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>130</v>
       </c>
-      <c r="C111" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A112" s="8" t="s">
+      <c r="C111" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="C112" t="b">
-        <v>1</v>
-      </c>
-      <c r="E112">
+      <c r="C112" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E112" s="9">
         <v>1204</v>
       </c>
-      <c r="F112" s="8">
+      <c r="F112" s="11">
         <v>1238.3</v>
       </c>
-      <c r="G112" s="6">
+      <c r="G112" s="8">
         <v>0.03</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A113" s="8" t="s">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="C113" t="b">
-        <v>1</v>
-      </c>
-      <c r="E113">
+      <c r="C113" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E113" s="9">
         <v>1216.2</v>
       </c>
-      <c r="F113" s="8">
+      <c r="F113" s="11">
         <v>1249</v>
       </c>
-      <c r="G113" s="6">
+      <c r="G113" s="8">
         <v>0.03</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>133</v>
       </c>
-      <c r="C114" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A115" s="8" t="s">
+      <c r="C114" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="C115" t="b">
-        <v>1</v>
-      </c>
-      <c r="E115">
+      <c r="C115" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E115" s="9">
         <v>170.9</v>
       </c>
-      <c r="F115" s="8">
+      <c r="F115" s="11">
         <v>175.1</v>
       </c>
-      <c r="G115" s="6">
+      <c r="G115" s="8">
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A116" s="8" t="s">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C116" t="b">
-        <v>1</v>
-      </c>
-      <c r="E116">
+      <c r="C116" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E116" s="9">
         <v>172</v>
       </c>
-      <c r="F116" s="8">
+      <c r="F116" s="11">
         <v>176.7</v>
       </c>
-      <c r="G116" s="6">
+      <c r="G116" s="8">
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>136</v>
       </c>
-      <c r="C117" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A118" s="8" t="s">
+      <c r="C117" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="C118" t="b">
-        <v>1</v>
-      </c>
-      <c r="E118">
+      <c r="C118" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E118" s="9">
         <v>302.3</v>
       </c>
-      <c r="F118" s="8">
+      <c r="F118" s="11">
         <v>315.39999999999998</v>
       </c>
-      <c r="G118" s="6">
+      <c r="G118" s="8">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A119" s="8" t="s">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="C119" t="b">
-        <v>1</v>
-      </c>
-      <c r="E119">
+      <c r="C119" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E119" s="9">
         <v>305.7</v>
       </c>
-      <c r="F119" s="8">
+      <c r="F119" s="11">
         <v>318.89999999999998</v>
       </c>
-      <c r="G119" s="6">
+      <c r="G119" s="8">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>139</v>
       </c>
-      <c r="C120" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C120" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>140</v>
       </c>
-      <c r="C121" t="b">
-        <v>1</v>
-      </c>
-      <c r="E121">
+      <c r="C121" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E121" s="9">
         <v>9209.6</v>
       </c>
       <c r="F121">
         <v>9356</v>
       </c>
-      <c r="G121" s="6">
+      <c r="G121" s="8">
         <v>0.02</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>141</v>
       </c>
-      <c r="C122" t="b">
-        <v>1</v>
-      </c>
-      <c r="E122">
+      <c r="C122" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E122" s="9">
         <v>9388.9</v>
       </c>
       <c r="F122">
         <v>9536.9</v>
       </c>
-      <c r="G122" s="6">
+      <c r="G122" s="8">
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
@@ -2794,14 +2832,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.1796875" customWidth="1"/>
-    <col min="2" max="2" width="36.81640625" customWidth="1"/>
-    <col min="3" max="3" width="68.453125" customWidth="1"/>
+    <col min="1" max="1" width="45.140625" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" customWidth="1"/>
+    <col min="3" max="3" width="68.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>170</v>
       </c>
@@ -2812,7 +2850,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>144</v>
       </c>
@@ -2821,7 +2859,7 @@
         <v>7.4647497926458081E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>145</v>
       </c>
@@ -2832,7 +2870,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>146</v>
       </c>
@@ -2843,7 +2881,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>147</v>
       </c>
@@ -2852,7 +2890,7 @@
         <v>5.8215962441314981E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>148</v>
       </c>
@@ -2861,7 +2899,7 @@
         <v>8.0025954363577585E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>149</v>
       </c>
@@ -2870,7 +2908,7 @@
         <v>0.13221153846153846</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>150</v>
       </c>
@@ -2879,7 +2917,7 @@
         <v>4.3859649122807022E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>151</v>
       </c>
@@ -2888,7 +2926,7 @@
         <v>2.3910528345545766E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>152</v>
       </c>
@@ -2897,7 +2935,7 @@
         <v>4.4599912549191031E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>153</v>
       </c>
@@ -2906,7 +2944,7 @@
         <v>1.9812758545612937E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>154</v>
       </c>
@@ -2915,7 +2953,7 @@
         <v>8.3017437452615639E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>155</v>
       </c>
@@ -2924,7 +2962,7 @@
         <v>6.8259385665529013E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>156</v>
       </c>
@@ -2933,7 +2971,7 @@
         <v>6.3063063063063002E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>157</v>
       </c>
@@ -2942,7 +2980,7 @@
         <v>8.8038858530661818E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>158</v>
       </c>
@@ -2951,7 +2989,7 @@
         <v>0.18111753371868977</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>159</v>
       </c>
@@ -2960,7 +2998,7 @@
         <v>1.2443168222062668E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>160</v>
       </c>
@@ -2969,7 +3007,7 @@
         <v>6.0952854832690348E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>161</v>
       </c>
@@ -2978,7 +3016,7 @@
         <v>9.0548953027730309E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>162</v>
       </c>
@@ -2987,7 +3025,7 @@
         <v>2.7473482872544024E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>163</v>
       </c>
@@ -2996,7 +3034,7 @@
         <v>8.5668534827862651E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>164</v>
       </c>
@@ -3005,7 +3043,7 @@
         <v>8.5668534827862651E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>165</v>
       </c>
@@ -3014,7 +3052,7 @@
         <v>1.0975227343994984E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>166</v>
       </c>
@@ -3025,7 +3063,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>167</v>
       </c>
@@ -3036,7 +3074,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>168</v>
       </c>
@@ -3059,241 +3097,241 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.26953125" customWidth="1"/>
+    <col min="1" max="1" width="46.28515625" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="10" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <f>Results!B2</f>
         <v>7.4647497926458081E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>145</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="7">
         <f>Results!B3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>146</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="7">
         <f>Results!B4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>147</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="6">
         <f>Results!B5</f>
         <v>5.8215962441314981E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>148</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="6">
         <f>Results!B6</f>
         <v>8.0025954363577585E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>149</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="6">
         <f>Results!B7</f>
         <v>0.13221153846153846</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>150</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="6">
         <f>Results!B8</f>
         <v>4.3859649122807022E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>151</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="6">
         <f>Results!B9</f>
         <v>2.3910528345545766E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>152</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="6">
         <f>Results!B10</f>
         <v>4.4599912549191031E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>153</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="6">
         <f>Results!B11</f>
         <v>1.9812758545612937E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>154</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="6">
         <f>Results!B12</f>
         <v>8.3017437452615639E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>155</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="6">
         <f>Results!B13</f>
         <v>6.8259385665529013E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>156</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="6">
         <f>Results!B14</f>
         <v>6.3063063063063002E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>157</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="6">
         <f>Results!B15</f>
         <v>8.8038858530661818E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>158</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="6">
         <f>Results!B16</f>
         <v>0.18111753371868977</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>159</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="6">
         <f>Results!B17</f>
         <v>1.2443168222062668E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>160</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="6">
         <f>Results!B18</f>
         <v>6.0952854832690348E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>161</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="6">
         <f>Results!B19</f>
         <v>9.0548953027730309E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>162</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="6">
         <f>Results!B20</f>
         <v>2.7473482872544024E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>163</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="6">
         <f>Results!B21</f>
         <v>8.5668534827862651E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>164</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="6">
         <f>Results!B22</f>
         <v>8.5668534827862651E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>165</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="6">
         <f>Results!B23</f>
         <v>1.0975227343994984E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>166</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="7">
         <f>Results!B24</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>167</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="7">
         <f>Results!B25</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>168</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="6">
         <f>Results!B26</f>
         <v>1.8731602890018429E-3</v>
       </c>
@@ -3302,285 +3340,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f85c0eb68479ad8b8987805fd5b8836b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7dbc72841229da9eaa30ebb1456cd70" ns2:_="" ns3:_="">
-    <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
-    <xsd:import namespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="00484652-42e1-479e-92f4-fb0efddcdf60" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="eca5b831-c3dc-41cf-bd85-218b82cecb21" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="13" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c5b79d03-3bfd-4c46-9947-056a2403f6c9}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A1936D8-5E4C-40EE-8006-4BD054FFA0DB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
-    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3184476B-819C-4CC7-A557-967AF062915E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51B70D78-2337-41C3-885A-A2B75A909B18}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
-    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>